--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>FHIR Project team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -300,7 +303,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -330,42 +335,44 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -387,58 +394,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -245,10 +245,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.3</t>
+    <t>0.7.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Project team</t>
+    <t>HL7 Norway</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>HL7 Norway (http://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -257,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -359,20 +365,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -394,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationRespirationRateDepth.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This resource includes content from SNOMED Clinical Terms® (SNOMED CT®) which is copyright of the International Health Terminology Standards Development Organisation (IHTSDO). Implementers of these specifications must have the appropriate SNOMED CT Affiliate license - for more information contact http://www.snomed.org/snomed-ct/get-snomed-ct or info@snomed.org</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -379,14 +382,16 @@
       <c r="A14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -408,7 +413,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -416,50 +421,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
